--- a/AAII_Financials/Yearly/LTMAQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LTMAQ_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Yearly/LTMAQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LTMAQ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>LTMAQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3923700</v>
+      </c>
+      <c r="E8" s="3">
         <v>10070100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9895500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9613900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8988300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9740000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12093500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12924500</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4513200</v>
+      </c>
+      <c r="E9" s="3">
         <v>7951300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7773400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7441800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6967000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7636700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9624500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10054200</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-589600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2118800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2122000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2172100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2021300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2103300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2469000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2870400</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,36 +868,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2719000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8453800</v>
+      </c>
+      <c r="E17" s="3">
         <v>9316900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8955000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8907100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8495000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9291500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11552100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12338700</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4530100</v>
+      </c>
+      <c r="E18" s="3">
         <v>753100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>940500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>706800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>493300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>448500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>541400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>585800</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-41800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>52500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>165600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-431300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-73600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-410400</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4575100</v>
+      </c>
+      <c r="E21" s="3">
         <v>711400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>944500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>759300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>658900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>467800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>175400</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>530600</v>
+      </c>
+      <c r="E22" s="3">
         <v>569400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>528900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>385100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>385000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>374400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>402500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>459300</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5105700</v>
+      </c>
+      <c r="E23" s="3">
         <v>141900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>415700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>374200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>273900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-357100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>65200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-283900</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-550200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-53700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>73900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>173500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>163200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-178400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>292400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-20100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4555500</v>
+      </c>
+      <c r="E26" s="3">
         <v>195600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>341800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>110700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-178700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-227200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-263800</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4545900</v>
+      </c>
+      <c r="E27" s="3">
         <v>190400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>309800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>155300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>69200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-219300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-260000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-281100</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E32" s="3">
         <v>41800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-52500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-165600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>431300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>73600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>410400</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4545900</v>
+      </c>
+      <c r="E33" s="3">
         <v>190400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>309800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>155300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>69200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-219300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-260000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-281100</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4545900</v>
+      </c>
+      <c r="E35" s="3">
         <v>190400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>309800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>155300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>69200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-219300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-260000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-281100</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1539100</v>
+      </c>
+      <c r="E41" s="3">
         <v>684700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>622400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>578300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>559400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>581100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>405700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>744700</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>205700</v>
+      </c>
+      <c r="E42" s="3">
         <v>811200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>819900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1061300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1091300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>807200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1231900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1901700</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>641900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1293300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1234600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1294600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1173800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>861200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1479900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1715600</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>323600</v>
+      </c>
+      <c r="E44" s="3">
         <v>354200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>279300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>236700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>241400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>224900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>266000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>231000</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>433300</v>
+      </c>
+      <c r="E45" s="3">
         <v>874800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>319600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>574600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>560800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>348600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>251100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>386500</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3143500</v>
+      </c>
+      <c r="E46" s="3">
         <v>4018200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3275900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3745500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3626800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2822900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3634600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4979500</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E47" s="3">
         <v>49000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>64800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>112000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>130700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>125800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>133100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>172700</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10730300</v>
+      </c>
+      <c r="E48" s="3">
         <v>12919600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12501800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10065300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10498100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10938700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10773100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10982800</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1046600</v>
+      </c>
+      <c r="E49" s="3">
         <v>3657800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3735100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4289800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4320700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3602000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5193500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5820900</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>691600</v>
+      </c>
+      <c r="E52" s="3">
         <v>443200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>501100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>585300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>621900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>612100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>750100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>675200</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15650100</v>
+      </c>
+      <c r="E54" s="3">
         <v>21087800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20078700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18798000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19198200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18101400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20484400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22631100</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1281400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1408700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1051000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1096500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>868800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>758800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>924100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>969300</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3050100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1835300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1760700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1288700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1814600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1510100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1397400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1969300</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3160400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3717000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3127500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3457400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3538700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3372000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3508200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3570600</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7491900</v>
+      </c>
+      <c r="E60" s="3">
         <v>6960900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5932200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5842700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6222200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5641000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5829700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6509100</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7803800</v>
+      </c>
+      <c r="E61" s="3">
         <v>8530400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8359100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6602900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6790300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7516300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7360700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7803600</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2796800</v>
+      </c>
+      <c r="E62" s="3">
         <v>2467300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2346800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2085100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2000400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2006600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2790300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2992000</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18085800</v>
+      </c>
+      <c r="E66" s="3">
         <v>17957000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16718000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14621900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15101500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15244900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16082500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17392300</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1730300</v>
+      </c>
+      <c r="E72" s="3">
         <v>2818100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2880600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3143500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3032300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2977600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3201600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3474100</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2435700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3130800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3360700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4176100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4096700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2856500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4401900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5238800</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4545900</v>
+      </c>
+      <c r="E81" s="3">
         <v>190400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>309800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>155300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>69200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-219300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-260000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-281100</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,8 +2700,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2529,9 +2727,12 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-494700</v>
+      </c>
+      <c r="E89" s="3">
         <v>2826700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2073300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1666700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>980900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1715500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1331400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1408700</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-324300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1276600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-660700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-403700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-694400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1569700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1440400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1381800</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1419200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-358400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-287400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-431800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1739100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-899100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1278800</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-55100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-72600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-66600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-41200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-35000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-35400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-29700</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1120800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1343500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1608600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1179100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-396300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-128400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1320200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1205800</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-73000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-166700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>43000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-83900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-107600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>623300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-60400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>192700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>195800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-235900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-995500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1334600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LTMAQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LTMAQ_YR_FIN.xlsx
@@ -2448,22 +2448,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1730300</v>
+        <v>-1704400</v>
       </c>
       <c r="E72" s="3">
-        <v>2818100</v>
+        <v>2841000</v>
       </c>
       <c r="F72" s="3">
-        <v>2880600</v>
+        <v>2895800</v>
       </c>
       <c r="G72" s="3">
-        <v>3143500</v>
+        <v>3104000</v>
       </c>
       <c r="H72" s="3">
-        <v>3032300</v>
+        <v>2993800</v>
       </c>
       <c r="I72" s="3">
-        <v>2977600</v>
+        <v>2988300</v>
       </c>
       <c r="J72" s="3">
         <v>3201600</v>

--- a/AAII_Financials/Yearly/LTMAQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LTMAQ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>LTMAQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,154 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4884000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3923700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10070100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9895500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9613900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8988300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9740000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12093500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12924500</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4963500</v>
+      </c>
+      <c r="E9" s="3">
         <v>4513200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7951300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7773400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7441800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6967000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7636700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9624500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10054200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-79500</v>
+      </c>
+      <c r="E10" s="3">
         <v>-589600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2118800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2122000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2172100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2021300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2103300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2469000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2870400</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,17 +888,20 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2337200</v>
+      </c>
+      <c r="E14" s="3">
         <v>2719000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -898,12 +918,15 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>8453800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9316900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8955000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8907100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8495000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9291500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11552100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12338700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4530100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>753100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>940500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>706800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>493300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>448500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>541400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>585800</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1050,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-45000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-41800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>52500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>165600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-431300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-73600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-410400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4575100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>711400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>944500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>759300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>658900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>467800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>175400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
         <v>530600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>569400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>528900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>385100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>385000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>374400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>402500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>459300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4084200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5105700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>141900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>415700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>374200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>273900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-357100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>65200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-283900</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>568900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-550200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-53700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>73900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>173500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>163200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-178400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>292400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-20100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4555500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>195600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>341800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>110700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-178700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-227200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-263800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4545900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>190400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>309800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>155300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>69200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-219300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-260000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-281100</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>45000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>41800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-52500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-165600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>431300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>73600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>410400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4545900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>190400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>309800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>155300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>69200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-219300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-260000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-281100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4545900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>190400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>309800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>155300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>69200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-219300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-260000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-281100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1646,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1046800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1539100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>684700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>622400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>578300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>559400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>581100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>405700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>744700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>101100</v>
+      </c>
+      <c r="E42" s="3">
         <v>205700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>811200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>819900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1061300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1091300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>807200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1231900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1901700</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>944700</v>
+      </c>
+      <c r="E43" s="3">
         <v>641900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1293300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1234600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1294600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1173800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>861200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1479900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1715600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>287300</v>
+      </c>
+      <c r="E44" s="3">
         <v>323600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>354200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>279300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>236700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>241400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>224900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>266000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>231000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>255200</v>
+      </c>
+      <c r="E45" s="3">
         <v>433300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>874800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>319600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>574600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>560800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>348600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>251100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>386500</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2635100</v>
+      </c>
+      <c r="E46" s="3">
         <v>3143500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4018200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3275900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3745500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3626800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2822900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3634600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4979500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E47" s="3">
         <v>38100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>49000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>64800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>112000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>130700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>125800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>133100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>172700</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9489900</v>
+      </c>
+      <c r="E48" s="3">
         <v>10730300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12919600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12501800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10065300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10498100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10938700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10773100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10982800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1018900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1046600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3657800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3735100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4289800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4320700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3602000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5193500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5820900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E52" s="3">
         <v>691600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>443200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>501100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>585300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>621900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>612100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>750100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>675200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13312400</v>
+      </c>
+      <c r="E54" s="3">
         <v>15650100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21087800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20078700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18798000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19198200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18101400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20484400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22631100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2138,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4860200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1281400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1408700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1051000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1096500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>868800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>758800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>924100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>969300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4453500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3050100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1835300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1760700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1288700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1814600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1510100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1397400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1969300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3022700</v>
+      </c>
+      <c r="E59" s="3">
         <v>3160400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3717000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3127500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3457400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3538700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3372000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3508200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3570600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12336300</v>
+      </c>
+      <c r="E60" s="3">
         <v>7491900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6960900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5932200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5842700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6222200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5641000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5829700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6509100</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5948700</v>
+      </c>
+      <c r="E61" s="3">
         <v>7803800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8530400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8359100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6602900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6790300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7516300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7360700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7803600</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2094300</v>
+      </c>
+      <c r="E62" s="3">
         <v>2796800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2467300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2346800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2085100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2000400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2006600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2790300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2992000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20369000</v>
+      </c>
+      <c r="E66" s="3">
         <v>18085800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17957000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16718000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14621900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15101500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15244900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16082500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17392300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10202600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1704400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2841000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2895800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3104000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2993800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2988300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3201600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3474100</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7056500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2435700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3130800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3360700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4176100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4096700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2856500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4401900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5238800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4545900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>190400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>309800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>155300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>69200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-219300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-260000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-281100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,8 +2899,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2730,9 +2929,12 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-184100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-494700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2826700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2073300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1666700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>980900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1715500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1331400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1408700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-587200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-324300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1276600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-660700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-403700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-694400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1569700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1440400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1381800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-542700</v>
+      </c>
+      <c r="E94" s="3">
         <v>33600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1419200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-358400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-287400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-431800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1739100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-899100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1278800</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3292,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-55100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-72600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-66600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-41200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-35000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-35400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-29700</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E100" s="3">
         <v>1120800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1343500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1608600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1179100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-396300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-128400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1320200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1205800</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-36500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-73000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-166700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-7600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>43000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-83900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-107600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-649000</v>
+      </c>
+      <c r="E102" s="3">
         <v>623300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-60400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>192700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>195800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-235900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-995500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1334600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LTMAQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LTMAQ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>LTMAQ</t>
   </si>
@@ -665,8 +665,7 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -975,8 +974,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>8309800</v>
       </c>
       <c r="E17" s="3">
         <v>8453800</v>
@@ -1008,8 +1007,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-3425800</v>
       </c>
       <c r="E18" s="3">
         <v>-4530100</v>
@@ -1056,8 +1055,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>89600</v>
       </c>
       <c r="E20" s="3">
         <v>-45000</v>
@@ -1089,8 +1088,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-3336200</v>
       </c>
       <c r="E21" s="3">
         <v>-4575100</v>
@@ -1122,8 +1121,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>748000</v>
       </c>
       <c r="E22" s="3">
         <v>530600</v>
@@ -1254,8 +1253,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-4653100</v>
       </c>
       <c r="E26" s="3">
         <v>-4555500</v>
@@ -1287,8 +1286,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-4647500</v>
       </c>
       <c r="E27" s="3">
         <v>-4545900</v>
@@ -1452,8 +1451,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-89600</v>
       </c>
       <c r="E32" s="3">
         <v>45000</v>
@@ -1485,8 +1484,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-4647500</v>
       </c>
       <c r="E33" s="3">
         <v>-4545900</v>
@@ -1551,8 +1550,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-4647500</v>
       </c>
       <c r="E35" s="3">
         <v>-4545900</v>
@@ -1653,7 +1652,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1046800</v>
+        <v>946200</v>
       </c>
       <c r="E41" s="3">
         <v>1539100</v>
@@ -1686,7 +1685,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>101100</v>
+        <v>184100</v>
       </c>
       <c r="E42" s="3">
         <v>205700</v>
@@ -1785,7 +1784,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>255200</v>
+        <v>272800</v>
       </c>
       <c r="E45" s="3">
         <v>433300</v>
@@ -2145,7 +2144,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4860200</v>
+        <v>1460800</v>
       </c>
       <c r="E57" s="3">
         <v>1281400</v>
@@ -2178,7 +2177,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4453500</v>
+        <v>4447800</v>
       </c>
       <c r="E58" s="3">
         <v>3050100</v>
@@ -2211,7 +2210,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3022700</v>
+        <v>6427700</v>
       </c>
       <c r="E59" s="3">
         <v>3160400</v>
@@ -2622,7 +2621,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10202600</v>
+        <v>-6373300</v>
       </c>
       <c r="E72" s="3">
         <v>-1704400</v>
@@ -2857,8 +2856,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-4647500</v>
       </c>
       <c r="E81" s="3">
         <v>-4545900</v>
